--- a/biology/Botanique/Forêt_d'Amejoud/Forêt_d'Amejoud.xlsx
+++ b/biology/Botanique/Forêt_d'Amejoud/Forêt_d'Amejoud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Amejoud</t>
+          <t>Forêt_d'Amejoud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Forêt d'Amejoud (en berbère : Amejuḍ / en caractères tifinaghs : ⴰⵎⴻⵊⵓⴹ / en arabe : غابة أمجوض) est une forêt de la grande Kabylie situé à 5 km au sud de la commune de Tizi ouzou, en Algérie. Cette forêt est gérée par la Conservation des forêts de Tizi Ouzou sous la tutelle de la Direction générale des forêts (DGF).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Amejoud</t>
+          <t>Forêt_d'Amejoud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au nord : la commune de Tizi ouzou.
 À l'est : la commune de Bouhinoune et Béni Zmenzer
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Amejoud</t>
+          <t>Forêt_d'Amejoud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Amejoud</t>
+          <t>Forêt_d'Amejoud</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,6 +589,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
